--- a/plot_curve_with_activation.xlsx
+++ b/plot_curve_with_activation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\investigacion\nadia_guajardo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7FBFD5E2-212E-4891-B80B-8AEB1CFF97A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ADC0D6E2-2061-419B-8F50-52FB1D66B0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11136"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="plot_curve_with_activation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Point</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>lotes_7</t>
+  </si>
+  <si>
+    <t>lotes_8</t>
   </si>
 </sst>
 </file>
@@ -890,15 +893,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="11.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,9 +914,15 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
@@ -920,6 +932,9 @@
       <c r="Q1" t="s">
         <v>7</v>
       </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +944,20 @@
       <c r="Z1" t="s">
         <v>3</v>
       </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -964,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K11" si="0">SUM(I2:J2)</f>
+        <f>SUM(I2:J2)</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -974,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N11" si="1">SUM(L2:M2)</f>
+        <f>SUM(L2:M2)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -984,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q11" si="2">SUM(O2:P2)</f>
+        <f>SUM(O2:P2)</f>
         <v>0</v>
       </c>
       <c r="R2">
@@ -994,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T11" si="3">SUM(R2:S2)</f>
+        <f>SUM(R2:S2)</f>
         <v>0</v>
       </c>
       <c r="U2">
@@ -1004,11 +1031,11 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W11" si="4">SUM(U2:V2)</f>
+        <f t="shared" ref="W2:W11" si="0">SUM(U2:V2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1022,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="5">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E11" si="1">SUM(C3:D3)</f>
         <v>1.1849567329797499</v>
       </c>
       <c r="F3">
@@ -1032,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="6">SUM(F3:G3)</f>
+        <f t="shared" ref="H3:H11" si="2">SUM(F3:G3)</f>
         <v>1.31484004467713</v>
       </c>
       <c r="I3">
@@ -1042,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K3:K11" si="3">SUM(I3:J3)</f>
         <v>1.47205769212485</v>
       </c>
       <c r="L3">
@@ -1052,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N3:N11" si="4">SUM(L3:M3)</f>
         <v>1.6719838699128999</v>
       </c>
       <c r="O3">
@@ -1062,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q3:Q11" si="5">SUM(O3:P3)</f>
         <v>1.9347596994571099</v>
       </c>
       <c r="R3">
@@ -1072,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T3:T11" si="6">SUM(R3:S3)</f>
         <v>2.2955562767475302</v>
       </c>
       <c r="U3">
@@ -1082,11 +1109,11 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8218154070868202</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1097,11 +1124,11 @@
         <v>2.4089093291345698</v>
       </c>
       <c r="D4">
-        <v>0.49999919642323398</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="5"/>
-        <v>2.9089085255578038</v>
+        <f t="shared" si="1"/>
+        <v>2.4089093291345698</v>
       </c>
       <c r="F4">
         <v>2.6769597716382898</v>
@@ -1110,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.6769597716382898</v>
       </c>
       <c r="I4">
@@ -1120,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.0025178663365901</v>
       </c>
       <c r="L4">
@@ -1130,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.4182672919541401</v>
       </c>
       <c r="O4">
@@ -1140,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.9677413587441501</v>
       </c>
       <c r="R4">
@@ -1150,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.7278921446466997</v>
       </c>
       <c r="U4">
@@ -1160,11 +1187,11 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5.84882875173356</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1178,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3.67621850046425</v>
       </c>
       <c r="F5">
@@ -1188,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4.0917681521220501</v>
       </c>
       <c r="I5">
@@ -1198,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5982963569448296</v>
       </c>
       <c r="L5">
@@ -1208,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.2481097291271803</v>
       </c>
       <c r="O5">
@@ -1218,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1121287691531396</v>
       </c>
       <c r="R5">
@@ -1228,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.31744614256968</v>
       </c>
       <c r="U5">
@@ -1238,11 +1265,11 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9.1169017773407699</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1253,11 +1280,11 @@
         <v>4.9926604231719001</v>
       </c>
       <c r="D6">
-        <v>0.25729377871574999</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="5"/>
-        <v>5.2499542018876504</v>
+        <f t="shared" si="1"/>
+        <v>4.9926604231719001</v>
       </c>
       <c r="F6">
         <v>5.56637614888629</v>
@@ -1266,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5.56637614888629</v>
       </c>
       <c r="I6">
@@ -1276,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2684234988890699</v>
       </c>
       <c r="L6">
@@ -1286,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1735383405054698</v>
       </c>
       <c r="O6">
@@ -1296,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.3850149686673205</v>
       </c>
       <c r="R6">
@@ -1306,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.090852601980901</v>
       </c>
       <c r="U6">
@@ -1316,11 +1343,11 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12.6736689185147</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1331,11 +1358,11 @@
         <v>6.3663686855964103</v>
       </c>
       <c r="D7">
-        <v>1.05986954691516</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="5"/>
-        <v>7.4262382325115706</v>
+        <f t="shared" si="1"/>
+        <v>6.3663686855964103</v>
       </c>
       <c r="F7">
         <v>7.1107042923617598</v>
@@ -1344,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7.1107042923617598</v>
       </c>
       <c r="I7">
@@ -1354,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.0253823984276806</v>
       </c>
       <c r="L7">
@@ -1364,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2110404350752599</v>
       </c>
       <c r="O7">
@@ -1374,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.809701154972799</v>
       </c>
       <c r="R7">
@@ -1384,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.084464470563301</v>
       </c>
       <c r="U7">
@@ -1394,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16.585256033196799</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1409,11 +1436,11 @@
         <v>7.8098120935017601</v>
       </c>
       <c r="D8">
-        <v>1.64031584947007</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
-        <v>9.4501279429718306</v>
+        <f t="shared" si="1"/>
+        <v>7.8098120935017601</v>
       </c>
       <c r="F8">
         <v>8.7397984713739998</v>
@@ -1422,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8.7397984713739998</v>
       </c>
       <c r="I8">
@@ -1432,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8878901050225707</v>
       </c>
       <c r="L8">
@@ -1442,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.3850486738671</v>
       </c>
       <c r="O8">
@@ -1452,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.4203663501518</v>
       </c>
       <c r="R8">
@@ -1462,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.351375349237799</v>
       </c>
       <c r="U8">
@@ -1472,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20.949453287972599</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1487,21 +1514,21 @@
         <v>9.3446175990349403</v>
       </c>
       <c r="D9">
-        <v>2.10129480967107</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
-        <v>11.445912408706011</v>
+        <f t="shared" si="1"/>
+        <v>9.3446175990349403</v>
       </c>
       <c r="F9">
         <v>10.479458712425</v>
       </c>
       <c r="G9">
-        <v>0.54818341353847599</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
-        <v>11.027642125963476</v>
+        <f t="shared" si="2"/>
+        <v>10.479458712425</v>
       </c>
       <c r="I9">
         <v>11.887625145984501</v>
@@ -1510,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.887625145984501</v>
       </c>
       <c r="L9">
@@ -1520,28 +1547,28 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.7363084330508</v>
       </c>
       <c r="O9">
         <v>16.273144051523602</v>
       </c>
       <c r="P9">
-        <v>64.250192790933397</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>80.523336842456999</v>
+        <f t="shared" si="5"/>
+        <v>16.273144051523602</v>
       </c>
       <c r="R9">
         <v>19.977766982089101</v>
       </c>
       <c r="S9">
-        <v>56.089985681977197</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
-        <v>76.06775266406629</v>
+        <f t="shared" si="6"/>
+        <v>19.977766982089101</v>
       </c>
       <c r="U9">
         <v>25.925725499515</v>
@@ -1550,11 +1577,11 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25.925725499515</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1565,21 +1592,21 @@
         <v>11.0163677816033</v>
       </c>
       <c r="D10">
-        <v>2.4931746542673499</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
-        <v>13.50954243587065</v>
+        <f t="shared" si="1"/>
+        <v>11.0163677816033</v>
       </c>
       <c r="F10">
         <v>12.383468918289999</v>
       </c>
       <c r="G10">
-        <v>1.4665014277550199</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
-        <v>13.849970346045019</v>
+        <f t="shared" si="2"/>
+        <v>12.383468918289999</v>
       </c>
       <c r="I10">
         <v>14.089748718919999</v>
@@ -1588,51 +1615,51 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.089748718919999</v>
       </c>
       <c r="L10">
         <v>16.3472573610266</v>
       </c>
       <c r="M10">
-        <v>51.825934050311197</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>68.173191411337797</v>
+        <f t="shared" si="4"/>
+        <v>16.3472573610266</v>
       </c>
       <c r="O10">
         <v>19.4793987231517</v>
       </c>
       <c r="P10">
-        <v>62.027503073422103</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>81.5069017965738</v>
+        <f t="shared" si="5"/>
+        <v>19.4793987231517</v>
       </c>
       <c r="R10">
         <v>24.131210644292398</v>
       </c>
       <c r="S10">
-        <v>71.768090667347096</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
-        <v>95.899301311639491</v>
+        <f t="shared" si="6"/>
+        <v>24.131210644292398</v>
       </c>
       <c r="U10">
         <v>31.821753558237699</v>
       </c>
       <c r="V10">
-        <v>58.0997941533805</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="4"/>
-        <v>89.921547711618203</v>
+        <f t="shared" si="0"/>
+        <v>31.821753558237699</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1646,7 +1673,7 @@
         <v>2.85651560182882</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>15.82054935538542</v>
       </c>
       <c r="F11">
@@ -1656,7 +1683,7 @@
         <v>2.1568250454604598</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>16.771150858447562</v>
       </c>
       <c r="I11">
@@ -1666,7 +1693,7 @@
         <v>0.84783105799570202</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.536677466651202</v>
       </c>
       <c r="L11">
@@ -1676,7 +1703,7 @@
         <v>63</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82.460255797991408</v>
       </c>
       <c r="O11">
@@ -1686,7 +1713,7 @@
         <v>65.277690226474604</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>88.637445607838202</v>
       </c>
       <c r="R11">
@@ -1696,7 +1723,7 @@
         <v>63.776383447078402</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>93.057916934945197</v>
       </c>
       <c r="U11">
@@ -1706,14 +1733,14 @@
         <v>58.423497546584002</v>
       </c>
       <c r="W11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>97.9041530012084</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E11" formulaRange="1"/>
+    <ignoredError sqref="E2 E3:E11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/plot_curve_with_activation.xlsx
+++ b/plot_curve_with_activation.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\investigacion\nadia_guajardo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ADC0D6E2-2061-419B-8F50-52FB1D66B0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="plot_curve_with_activation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,27 +513,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -558,7 +557,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -596,6 +595,1043 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0108705161854773E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot_curve_with_activation!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lotes_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot_curve_with_activation!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1849567329797499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4089093291345698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.67621850046425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9926604231719001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3663686855964103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8098120935017601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3446175990349403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.0163677816033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.964033753556601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot_curve_with_activation!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot_curve_with_activation!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lotes_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>plot_curve_with_activation!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31484004467713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6769597716382898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0917681521220501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.56637614888629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1107042923617598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7397984713739998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.479458712425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.383468918289999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.898545234980205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>plot_curve_with_activation!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="901301328"/>
+        <c:axId val="901304048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="901301328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901304048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="901304048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901301328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -613,7 +1649,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -625,7 +1661,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -642,9 +1678,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -672,31 +1708,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -724,23 +1743,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,14 +1897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="24" max="24" width="11.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -932,20 +1931,20 @@
       <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
       <c r="T1" t="s">
         <v>8</v>
       </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
       <c r="W1" t="s">
         <v>9</v>
       </c>
       <c r="Z1" t="s">
         <v>3</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>9</v>
       </c>
       <c r="AD1" t="s">
         <v>3</v>
@@ -991,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUM(I2:J2)</f>
+        <f t="shared" ref="K2:K11" si="0">SUM(I2:J2)</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -1001,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUM(L2:M2)</f>
+        <f t="shared" ref="N2:N11" si="1">SUM(L2:M2)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -1011,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>SUM(O2:P2)</f>
+        <f t="shared" ref="Q2:Q11" si="2">SUM(O2:P2)</f>
         <v>0</v>
       </c>
       <c r="R2">
@@ -1021,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T11" si="3">SUM(R2:S2)</f>
         <v>0</v>
       </c>
       <c r="U2">
@@ -1031,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W11" si="0">SUM(U2:V2)</f>
+        <f t="shared" ref="W2:W11" si="4">SUM(U2:V2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1049,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="1">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E11" si="5">SUM(C3:D3)</f>
         <v>1.1849567329797499</v>
       </c>
       <c r="F3">
@@ -1059,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">SUM(F3:G3)</f>
+        <f t="shared" ref="H3:H11" si="6">SUM(F3:G3)</f>
         <v>1.31484004467713</v>
       </c>
       <c r="I3">
@@ -1069,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K11" si="3">SUM(I3:J3)</f>
+        <f t="shared" si="0"/>
         <v>1.47205769212485</v>
       </c>
       <c r="L3">
@@ -1079,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="4">SUM(L3:M3)</f>
+        <f t="shared" si="1"/>
         <v>1.6719838699128999</v>
       </c>
       <c r="O3">
@@ -1089,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="5">SUM(O3:P3)</f>
+        <f t="shared" si="2"/>
         <v>1.9347596994571099</v>
       </c>
       <c r="R3">
@@ -1099,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T11" si="6">SUM(R3:S3)</f>
+        <f t="shared" si="3"/>
         <v>2.2955562767475302</v>
       </c>
       <c r="U3">
@@ -1109,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8218154070868202</v>
       </c>
     </row>
@@ -1127,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4089093291345698</v>
       </c>
       <c r="F4">
@@ -1137,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6769597716382898</v>
       </c>
       <c r="I4">
@@ -1147,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.0025178663365901</v>
       </c>
       <c r="L4">
@@ -1157,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.4182672919541401</v>
       </c>
       <c r="O4">
@@ -1167,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3.9677413587441501</v>
       </c>
       <c r="R4">
@@ -1177,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.7278921446466997</v>
       </c>
       <c r="U4">
@@ -1187,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.84882875173356</v>
       </c>
     </row>
@@ -1205,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.67621850046425</v>
       </c>
       <c r="F5">
@@ -1215,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.0917681521220501</v>
       </c>
       <c r="I5">
@@ -1225,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5982963569448296</v>
       </c>
       <c r="L5">
@@ -1235,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.2481097291271803</v>
       </c>
       <c r="O5">
@@ -1245,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.1121287691531396</v>
       </c>
       <c r="R5">
@@ -1255,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.31744614256968</v>
       </c>
       <c r="U5">
@@ -1265,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.1169017773407699</v>
       </c>
     </row>
@@ -1283,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.9926604231719001</v>
       </c>
       <c r="F6">
@@ -1293,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.56637614888629</v>
       </c>
       <c r="I6">
@@ -1303,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.2684234988890699</v>
       </c>
       <c r="L6">
@@ -1313,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7.1735383405054698</v>
       </c>
       <c r="O6">
@@ -1323,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.3850149686673205</v>
       </c>
       <c r="R6">
@@ -1333,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10.090852601980901</v>
       </c>
       <c r="U6">
@@ -1343,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12.6736689185147</v>
       </c>
     </row>
@@ -1361,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.3663686855964103</v>
       </c>
       <c r="F7">
@@ -1371,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1107042923617598</v>
       </c>
       <c r="I7">
@@ -1381,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8.0253823984276806</v>
       </c>
       <c r="L7">
@@ -1391,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9.2110404350752599</v>
       </c>
       <c r="O7">
@@ -1401,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10.809701154972799</v>
       </c>
       <c r="R7">
@@ -1411,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13.084464470563301</v>
       </c>
       <c r="U7">
@@ -1421,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16.585256033196799</v>
       </c>
     </row>
@@ -1439,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.8098120935017601</v>
       </c>
       <c r="F8">
@@ -1449,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7397984713739998</v>
       </c>
       <c r="I8">
@@ -1459,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.8878901050225707</v>
       </c>
       <c r="L8">
@@ -1469,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11.3850486738671</v>
       </c>
       <c r="O8">
@@ -1479,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13.4203663501518</v>
       </c>
       <c r="R8">
@@ -1489,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16.351375349237799</v>
       </c>
       <c r="U8">
@@ -1499,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20.949453287972599</v>
       </c>
     </row>
@@ -1517,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.3446175990349403</v>
       </c>
       <c r="F9">
@@ -1527,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.479458712425</v>
       </c>
       <c r="I9">
@@ -1537,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11.887625145984501</v>
       </c>
       <c r="L9">
@@ -1547,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>13.7363084330508</v>
       </c>
       <c r="O9">
@@ -1557,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.273144051523602</v>
       </c>
       <c r="R9">
@@ -1567,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>19.977766982089101</v>
       </c>
       <c r="U9">
@@ -1577,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25.925725499515</v>
       </c>
     </row>
@@ -1595,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.0163677816033</v>
       </c>
       <c r="F10">
@@ -1605,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.383468918289999</v>
       </c>
       <c r="I10">
@@ -1615,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>14.089748718919999</v>
       </c>
       <c r="L10">
@@ -1625,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>16.3472573610266</v>
       </c>
       <c r="O10">
@@ -1635,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.4793987231517</v>
       </c>
       <c r="R10">
@@ -1645,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>24.131210644292398</v>
       </c>
       <c r="U10">
@@ -1655,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31.821753558237699</v>
       </c>
     </row>
@@ -1670,77 +2669,75 @@
         <v>12.964033753556601</v>
       </c>
       <c r="D11">
-        <v>2.85651560182882</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>15.82054935538542</v>
+        <f t="shared" si="5"/>
+        <v>12.964033753556601</v>
       </c>
       <c r="F11">
         <v>14.614325812987101</v>
       </c>
       <c r="G11">
-        <v>2.1568250454604598</v>
+        <v>18.2842194219931</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>16.771150858447562</v>
+        <f t="shared" si="6"/>
+        <v>32.898545234980205</v>
       </c>
       <c r="I11">
         <v>16.6888464086555</v>
       </c>
       <c r="J11">
-        <v>0.84783105799570202</v>
+        <v>19.225906248078701</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
-        <v>17.536677466651202</v>
+        <f t="shared" si="0"/>
+        <v>35.914752656734201</v>
       </c>
       <c r="L11">
         <v>19.460255797991401</v>
       </c>
       <c r="M11">
-        <v>63</v>
+        <v>20.304008195458898</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
-        <v>82.460255797991408</v>
+        <f t="shared" si="1"/>
+        <v>39.764263993450299</v>
       </c>
       <c r="O11">
         <v>23.359755381363598</v>
       </c>
       <c r="P11">
-        <v>65.277690226474604</v>
+        <v>21.558422645141398</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>88.637445607838202</v>
+        <f t="shared" si="2"/>
+        <v>44.918178026504997</v>
       </c>
       <c r="R11">
         <v>29.281533487866799</v>
       </c>
       <c r="S11">
-        <v>63.776383447078402</v>
+        <v>23.0491948143213</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
-        <v>93.057916934945197</v>
+        <f t="shared" si="3"/>
+        <v>52.330728302188099</v>
       </c>
       <c r="U11">
         <v>39.480655454624397</v>
       </c>
       <c r="V11">
-        <v>58.423497546584002</v>
+        <v>24.872842162915301</v>
       </c>
       <c r="W11">
-        <f t="shared" si="0"/>
-        <v>97.9041530012084</v>
+        <f t="shared" si="4"/>
+        <v>64.353497617539702</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2 E3:E11" formulaRange="1"/>
-  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>